--- a/state_results/Rivers/MakakahiatdsEketahunaSTP_d60c1a2963.xlsx
+++ b/state_results/Rivers/MakakahiatdsEketahunaSTP_d60c1a2963.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U206"/>
+  <dimension ref="A1:U223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>2.1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.39064774864835</v>
+        <v>2.4180673605757</v>
       </c>
       <c r="H2" t="n">
-        <v>6.12856002180599</v>
+        <v>6.425529505292</v>
       </c>
       <c r="I2" t="n">
-        <v>5.9775</v>
+        <v>5.98173</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>2.425</v>
       </c>
       <c r="M2" t="n">
-        <v>3.79925</v>
+        <v>3.815</v>
       </c>
       <c r="N2" t="n">
-        <v>4.629</v>
+        <v>4.71187</v>
       </c>
       <c r="O2" t="n">
         <v>1829591.02</v>
@@ -651,7 +651,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0125417768982061</v>
+        <v>0.0125455402874147</v>
       </c>
       <c r="H3" t="n">
         <v>0.073</v>
@@ -732,7 +732,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0125417768982061</v>
+        <v>0.0125455402874147</v>
       </c>
       <c r="H4" t="n">
         <v>0.073</v>
@@ -813,7 +813,7 @@
         <v>0.00691</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0138332487022268</v>
+        <v>0.0138502246718602</v>
       </c>
       <c r="H5" t="n">
         <v>0.1</v>
@@ -824,7 +824,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>0.00708</v>
+        <v>0.00723</v>
       </c>
       <c r="M5" t="n">
         <v>0.01531</v>
@@ -894,7 +894,7 @@
         <v>0.00691</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0138332487022268</v>
+        <v>0.0138502246718602</v>
       </c>
       <c r="H6" t="n">
         <v>0.1</v>
@@ -905,7 +905,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>0.00708</v>
+        <v>0.00723</v>
       </c>
       <c r="M6" t="n">
         <v>0.01531</v>
@@ -971,7 +971,7 @@
         <v>0.4505</v>
       </c>
       <c r="G7" t="n">
-        <v>0.517694444444444</v>
+        <v>0.517711111111111</v>
       </c>
       <c r="H7" t="n">
         <v>1.373</v>
@@ -1048,7 +1048,7 @@
         <v>0.4505</v>
       </c>
       <c r="G8" t="n">
-        <v>0.517694444444444</v>
+        <v>0.517711111111111</v>
       </c>
       <c r="H8" t="n">
         <v>1.373</v>
@@ -1283,13 +1283,13 @@
         <v>1.9</v>
       </c>
       <c r="G11" t="n">
-        <v>2.25973189751619</v>
+        <v>2.28270508588775</v>
       </c>
       <c r="H11" t="n">
-        <v>6.12856002180599</v>
+        <v>6.425529505292</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5425</v>
+        <v>5.5721</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1300,7 +1300,7 @@
         <v>3.305</v>
       </c>
       <c r="N11" t="n">
-        <v>4.416</v>
+        <v>4.64566</v>
       </c>
       <c r="O11" t="n">
         <v>1829591.02</v>
@@ -1364,7 +1364,7 @@
         <v>0.008</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0107573306140624</v>
+        <v>0.010763497172491</v>
       </c>
       <c r="H12" t="n">
         <v>0.073</v>
@@ -1445,7 +1445,7 @@
         <v>0.008</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0107573306140624</v>
+        <v>0.010763497172491</v>
       </c>
       <c r="H13" t="n">
         <v>0.073</v>
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.00754</v>
+        <v>0.00757</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0144067198037485</v>
+        <v>0.014421194080846</v>
       </c>
       <c r="H14" t="n">
         <v>0.1</v>
@@ -1537,7 +1537,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.00754</v>
+        <v>0.00757</v>
       </c>
       <c r="M14" t="n">
         <v>0.01839</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.00754</v>
+        <v>0.00757</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0144067198037485</v>
+        <v>0.014421194080846</v>
       </c>
       <c r="H15" t="n">
         <v>0.1</v>
@@ -1618,7 +1618,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>0.00754</v>
+        <v>0.00757</v>
       </c>
       <c r="M15" t="n">
         <v>0.01839</v>
@@ -1684,7 +1684,7 @@
         <v>0.4505</v>
       </c>
       <c r="G16" t="n">
-        <v>0.493895833333333</v>
+        <v>0.493908333333333</v>
       </c>
       <c r="H16" t="n">
         <v>1.373</v>
@@ -1761,7 +1761,7 @@
         <v>0.4505</v>
       </c>
       <c r="G17" t="n">
-        <v>0.493895833333333</v>
+        <v>0.493908333333333</v>
       </c>
       <c r="H17" t="n">
         <v>1.373</v>
@@ -1838,7 +1838,7 @@
         <v>0.0215</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0305862539071837</v>
+        <v>0.0305832185089126</v>
       </c>
       <c r="H18" t="n">
         <v>0.164</v>
@@ -1915,7 +1915,7 @@
         <v>0.0215</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0305862539071837</v>
+        <v>0.0305832185089126</v>
       </c>
       <c r="H19" t="n">
         <v>0.164</v>
@@ -1996,13 +1996,13 @@
         <v>2.05</v>
       </c>
       <c r="G20" t="n">
-        <v>2.22489532357657</v>
+        <v>2.24298059952865</v>
       </c>
       <c r="H20" t="n">
-        <v>6.12856002180599</v>
+        <v>6.425529505292</v>
       </c>
       <c r="I20" t="n">
-        <v>4.8175</v>
+        <v>4.88937</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2013,7 +2013,7 @@
         <v>3.1</v>
       </c>
       <c r="N20" t="n">
-        <v>4.1822</v>
+        <v>4.496</v>
       </c>
       <c r="O20" t="n">
         <v>1829591.02</v>
@@ -2077,7 +2077,7 @@
         <v>0.008</v>
       </c>
       <c r="G21" t="n">
-        <v>0.009953326236219501</v>
+        <v>0.009959410866545801</v>
       </c>
       <c r="H21" t="n">
         <v>0.073</v>
@@ -2158,7 +2158,7 @@
         <v>0.008</v>
       </c>
       <c r="G22" t="n">
-        <v>0.009953326236219501</v>
+        <v>0.009959410866545801</v>
       </c>
       <c r="H22" t="n">
         <v>0.073</v>
@@ -2579,7 +2579,7 @@
         <v>0.008319999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0141881153699182</v>
+        <v>0.0141996947915961</v>
       </c>
       <c r="H27" t="n">
         <v>0.1</v>
@@ -2590,7 +2590,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.00754</v>
+        <v>0.00757</v>
       </c>
       <c r="M27" t="n">
         <v>0.01779</v>
@@ -2660,7 +2660,7 @@
         <v>0.008319999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0141881153699182</v>
+        <v>0.0141996947915961</v>
       </c>
       <c r="H28" t="n">
         <v>0.1</v>
@@ -2671,7 +2671,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.00754</v>
+        <v>0.00757</v>
       </c>
       <c r="M28" t="n">
         <v>0.01779</v>
@@ -2899,7 +2899,7 @@
         <v>0.4955</v>
       </c>
       <c r="G31" t="n">
-        <v>0.505316666666667</v>
+        <v>0.505323333333333</v>
       </c>
       <c r="H31" t="n">
         <v>1.373</v>
@@ -2910,7 +2910,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.19</v>
+        <v>0.18975</v>
       </c>
       <c r="M31" t="n">
         <v>0.8901</v>
@@ -2976,7 +2976,7 @@
         <v>0.4955</v>
       </c>
       <c r="G32" t="n">
-        <v>0.505316666666667</v>
+        <v>0.505323333333333</v>
       </c>
       <c r="H32" t="n">
         <v>1.373</v>
@@ -2987,7 +2987,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>0.19</v>
+        <v>0.18975</v>
       </c>
       <c r="M32" t="n">
         <v>0.8901</v>
@@ -3207,7 +3207,7 @@
         <v>0.021</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0285023364590803</v>
+        <v>0.0284999081404634</v>
       </c>
       <c r="H35" t="n">
         <v>0.164</v>
@@ -3284,7 +3284,7 @@
         <v>0.021</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0285023364590803</v>
+        <v>0.0284999081404634</v>
       </c>
       <c r="H36" t="n">
         <v>0.164</v>
@@ -3365,13 +3365,13 @@
         <v>2.1</v>
       </c>
       <c r="G37" t="n">
-        <v>2.31896000433539</v>
+        <v>2.33666850370514</v>
       </c>
       <c r="H37" t="n">
-        <v>6.12856002180599</v>
+        <v>6.425529505292</v>
       </c>
       <c r="I37" t="n">
-        <v>4.745</v>
+        <v>4.8211</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -3382,7 +3382,7 @@
         <v>3.1</v>
       </c>
       <c r="N37" t="n">
-        <v>4.17672</v>
+        <v>4.464</v>
       </c>
       <c r="O37" t="n">
         <v>1829591.02</v>
@@ -3446,7 +3446,7 @@
         <v>0.007</v>
       </c>
       <c r="G38" t="n">
-        <v>0.007894033578121599</v>
+        <v>0.007900386563090099</v>
       </c>
       <c r="H38" t="n">
         <v>0.032</v>
@@ -3527,7 +3527,7 @@
         <v>0.007</v>
       </c>
       <c r="G39" t="n">
-        <v>0.007894033578121599</v>
+        <v>0.007900386563090099</v>
       </c>
       <c r="H39" t="n">
         <v>0.032</v>
@@ -3948,7 +3948,7 @@
         <v>0.008319999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0126952119434909</v>
+        <v>0.0126991466689632</v>
       </c>
       <c r="H44" t="n">
         <v>0.1</v>
@@ -4029,7 +4029,7 @@
         <v>0.008319999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0126952119434909</v>
+        <v>0.0126991466689632</v>
       </c>
       <c r="H45" t="n">
         <v>0.1</v>
@@ -4268,7 +4268,7 @@
         <v>0.4235</v>
       </c>
       <c r="G48" t="n">
-        <v>0.477033333333333</v>
+        <v>0.477026666666667</v>
       </c>
       <c r="H48" t="n">
         <v>1.37</v>
@@ -4279,7 +4279,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.19</v>
+        <v>0.18975</v>
       </c>
       <c r="M48" t="n">
         <v>0.8349</v>
@@ -4345,7 +4345,7 @@
         <v>0.4235</v>
       </c>
       <c r="G49" t="n">
-        <v>0.477033333333333</v>
+        <v>0.477026666666667</v>
       </c>
       <c r="H49" t="n">
         <v>1.37</v>
@@ -4356,7 +4356,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.19</v>
+        <v>0.18975</v>
       </c>
       <c r="M49" t="n">
         <v>0.8349</v>
@@ -4576,7 +4576,7 @@
         <v>0.02</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0261856697924136</v>
+        <v>0.0261832414737967</v>
       </c>
       <c r="H52" t="n">
         <v>0.164</v>
@@ -4653,7 +4653,7 @@
         <v>0.02</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0261856697924136</v>
+        <v>0.0261832414737967</v>
       </c>
       <c r="H53" t="n">
         <v>0.164</v>
@@ -4734,13 +4734,13 @@
         <v>2.08</v>
       </c>
       <c r="G54" t="n">
-        <v>2.24587130887172</v>
+        <v>2.26434974299667</v>
       </c>
       <c r="H54" t="n">
-        <v>6.12856002180599</v>
+        <v>6.425529505292</v>
       </c>
       <c r="I54" t="n">
-        <v>4.51522</v>
+        <v>4.95765</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -4815,7 +4815,7 @@
         <v>0.007</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0071773669114549</v>
+        <v>0.0071837198964235</v>
       </c>
       <c r="H55" t="n">
         <v>0.015</v>
@@ -4896,7 +4896,7 @@
         <v>0.007</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0071773669114549</v>
+        <v>0.0071837198964235</v>
       </c>
       <c r="H56" t="n">
         <v>0.015</v>
@@ -5317,7 +5317,7 @@
         <v>0.00693</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0118680243640999</v>
+        <v>0.0118719590895723</v>
       </c>
       <c r="H61" t="n">
         <v>0.1</v>
@@ -5398,7 +5398,7 @@
         <v>0.00693</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0118680243640999</v>
+        <v>0.0118719590895723</v>
       </c>
       <c r="H62" t="n">
         <v>0.1</v>
@@ -5634,13 +5634,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.497</v>
+        <v>0.49695</v>
       </c>
       <c r="G65" t="n">
-        <v>0.47105</v>
+        <v>0.47104</v>
       </c>
       <c r="H65" t="n">
-        <v>1.178</v>
+        <v>1.1782</v>
       </c>
       <c r="I65" t="n">
         <v>0.9785</v>
@@ -5651,7 +5651,7 @@
         <v>0.171</v>
       </c>
       <c r="M65" t="n">
-        <v>0.8177</v>
+        <v>0.81776</v>
       </c>
       <c r="N65" t="n">
         <v>0.9129</v>
@@ -5711,13 +5711,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.497</v>
+        <v>0.49695</v>
       </c>
       <c r="G66" t="n">
-        <v>0.47105</v>
+        <v>0.47104</v>
       </c>
       <c r="H66" t="n">
-        <v>1.178</v>
+        <v>1.1782</v>
       </c>
       <c r="I66" t="n">
         <v>0.9785</v>
@@ -5728,7 +5728,7 @@
         <v>0.171</v>
       </c>
       <c r="M66" t="n">
-        <v>0.8177</v>
+        <v>0.81776</v>
       </c>
       <c r="N66" t="n">
         <v>0.9129</v>
@@ -5945,7 +5945,7 @@
         <v>0.02</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0240356697924136</v>
+        <v>0.0240332414737967</v>
       </c>
       <c r="H69" t="n">
         <v>0.15</v>
@@ -6022,7 +6022,7 @@
         <v>0.02</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0240356697924136</v>
+        <v>0.0240332414737967</v>
       </c>
       <c r="H70" t="n">
         <v>0.15</v>
@@ -6184,7 +6184,7 @@
         <v>0.007</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0075303743111849</v>
+        <v>0.0075356899708857</v>
       </c>
       <c r="H72" t="n">
         <v>0.026</v>
@@ -6265,7 +6265,7 @@
         <v>0.007</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0075303743111849</v>
+        <v>0.0075356899708857</v>
       </c>
       <c r="H73" t="n">
         <v>0.026</v>
@@ -6686,7 +6686,7 @@
         <v>0.00629</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0103428401104276</v>
+        <v>0.0103468900516679</v>
       </c>
       <c r="H78" t="n">
         <v>0.0953535842749265</v>
@@ -6767,7 +6767,7 @@
         <v>0.00629</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0103428401104276</v>
+        <v>0.0103468900516679</v>
       </c>
       <c r="H79" t="n">
         <v>0.0953535842749265</v>
@@ -6848,7 +6848,7 @@
         <v>0.4925</v>
       </c>
       <c r="G80" t="n">
-        <v>0.445217079378927</v>
+        <v>0.445231653616863</v>
       </c>
       <c r="H80" t="n">
         <v>1.1681</v>
@@ -6929,7 +6929,7 @@
         <v>0.4925</v>
       </c>
       <c r="G81" t="n">
-        <v>0.445217079378927</v>
+        <v>0.445231653616863</v>
       </c>
       <c r="H81" t="n">
         <v>1.1681</v>
@@ -7006,10 +7006,10 @@
         <v>0.52</v>
       </c>
       <c r="G82" t="n">
-        <v>0.46732699151897</v>
+        <v>0.467330192152609</v>
       </c>
       <c r="H82" t="n">
-        <v>1.178</v>
+        <v>1.1782</v>
       </c>
       <c r="I82" t="n">
         <v>0.9475</v>
@@ -7020,7 +7020,7 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="M82" t="n">
-        <v>0.7945</v>
+        <v>0.79453</v>
       </c>
       <c r="N82" t="n">
         <v>0.8685</v>
@@ -7083,10 +7083,10 @@
         <v>0.52</v>
       </c>
       <c r="G83" t="n">
-        <v>0.46732699151897</v>
+        <v>0.467330192152609</v>
       </c>
       <c r="H83" t="n">
-        <v>1.178</v>
+        <v>1.1782</v>
       </c>
       <c r="I83" t="n">
         <v>0.9475</v>
@@ -7097,7 +7097,7 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="M83" t="n">
-        <v>0.7945</v>
+        <v>0.79453</v>
       </c>
       <c r="N83" t="n">
         <v>0.8685</v>
@@ -7314,7 +7314,7 @@
         <v>0.02</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0277356697924136</v>
+        <v>0.0277332414737967</v>
       </c>
       <c r="H86" t="n">
         <v>0.15</v>
@@ -7391,7 +7391,7 @@
         <v>0.02</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0277356697924136</v>
+        <v>0.0277332414737967</v>
       </c>
       <c r="H87" t="n">
         <v>0.15</v>
@@ -7553,7 +7553,7 @@
         <v>0.008</v>
       </c>
       <c r="G89" t="n">
-        <v>0.008348706703479</v>
+        <v>0.008352170452266199</v>
       </c>
       <c r="H89" t="n">
         <v>0.026</v>
@@ -7634,7 +7634,7 @@
         <v>0.008</v>
       </c>
       <c r="G90" t="n">
-        <v>0.008348706703479</v>
+        <v>0.008352170452266199</v>
       </c>
       <c r="H90" t="n">
         <v>0.026</v>
@@ -8055,7 +8055,7 @@
         <v>0.00298</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0086116870917619</v>
+        <v>0.0086180285758696</v>
       </c>
       <c r="H95" t="n">
         <v>0.0953535842749265</v>
@@ -8066,7 +8066,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.00167</v>
+        <v>0.00168</v>
       </c>
       <c r="M95" t="n">
         <v>0.01637</v>
@@ -8136,7 +8136,7 @@
         <v>0.00298</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0086116870917619</v>
+        <v>0.0086180285758696</v>
       </c>
       <c r="H96" t="n">
         <v>0.0953535842749265</v>
@@ -8147,7 +8147,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.00167</v>
+        <v>0.00168</v>
       </c>
       <c r="M96" t="n">
         <v>0.01637</v>
@@ -8217,7 +8217,7 @@
         <v>0.48085</v>
       </c>
       <c r="G97" t="n">
-        <v>0.45590041271226</v>
+        <v>0.455914986950196</v>
       </c>
       <c r="H97" t="n">
         <v>1.1681</v>
@@ -8298,7 +8298,7 @@
         <v>0.48085</v>
       </c>
       <c r="G98" t="n">
-        <v>0.45590041271226</v>
+        <v>0.455914986950196</v>
       </c>
       <c r="H98" t="n">
         <v>1.1681</v>
@@ -8372,13 +8372,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.497</v>
+        <v>0.49695</v>
       </c>
       <c r="G99" t="n">
-        <v>0.479160324852304</v>
+        <v>0.479163525485942</v>
       </c>
       <c r="H99" t="n">
-        <v>1.178</v>
+        <v>1.1782</v>
       </c>
       <c r="I99" t="n">
         <v>1.007</v>
@@ -8389,7 +8389,7 @@
         <v>0.16</v>
       </c>
       <c r="M99" t="n">
-        <v>0.7945</v>
+        <v>0.79453</v>
       </c>
       <c r="N99" t="n">
         <v>0.9125</v>
@@ -8449,13 +8449,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.497</v>
+        <v>0.49695</v>
       </c>
       <c r="G100" t="n">
-        <v>0.479160324852304</v>
+        <v>0.479163525485942</v>
       </c>
       <c r="H100" t="n">
-        <v>1.178</v>
+        <v>1.1782</v>
       </c>
       <c r="I100" t="n">
         <v>1.007</v>
@@ -8466,7 +8466,7 @@
         <v>0.16</v>
       </c>
       <c r="M100" t="n">
-        <v>0.7945</v>
+        <v>0.79453</v>
       </c>
       <c r="N100" t="n">
         <v>0.9125</v>
@@ -8922,7 +8922,7 @@
         <v>0.0075</v>
       </c>
       <c r="G106" t="n">
-        <v>0.008484578291842701</v>
+        <v>0.0084868906570466</v>
       </c>
       <c r="H106" t="n">
         <v>0.026</v>
@@ -9003,7 +9003,7 @@
         <v>0.0075</v>
       </c>
       <c r="G107" t="n">
-        <v>0.008484578291842701</v>
+        <v>0.0084868906570466</v>
       </c>
       <c r="H107" t="n">
         <v>0.026</v>
@@ -9424,7 +9424,7 @@
         <v>0.00272</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0077718119096345</v>
+        <v>0.007777774864457</v>
       </c>
       <c r="H112" t="n">
         <v>0.0953535842749265</v>
@@ -9435,7 +9435,7 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.00167</v>
+        <v>0.00168</v>
       </c>
       <c r="M112" t="n">
         <v>0.0143</v>
@@ -9505,7 +9505,7 @@
         <v>0.00272</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0077718119096345</v>
+        <v>0.007777774864457</v>
       </c>
       <c r="H113" t="n">
         <v>0.0953535842749265</v>
@@ -9516,7 +9516,7 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>0.00167</v>
+        <v>0.00168</v>
       </c>
       <c r="M113" t="n">
         <v>0.0143</v>
@@ -9586,7 +9586,7 @@
         <v>0.48335</v>
       </c>
       <c r="G114" t="n">
-        <v>0.46950041271226</v>
+        <v>0.469514986950196</v>
       </c>
       <c r="H114" t="n">
         <v>1.1681</v>
@@ -9667,7 +9667,7 @@
         <v>0.48335</v>
       </c>
       <c r="G115" t="n">
-        <v>0.46950041271226</v>
+        <v>0.469514986950196</v>
       </c>
       <c r="H115" t="n">
         <v>1.1681</v>
@@ -9741,13 +9741,13 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.497</v>
+        <v>0.49695</v>
       </c>
       <c r="G116" t="n">
-        <v>0.491293658185637</v>
+        <v>0.491300192152609</v>
       </c>
       <c r="H116" t="n">
-        <v>1.178</v>
+        <v>1.1782</v>
       </c>
       <c r="I116" t="n">
         <v>1.02</v>
@@ -9758,7 +9758,7 @@
         <v>0.16</v>
       </c>
       <c r="M116" t="n">
-        <v>0.8288</v>
+        <v>0.82894</v>
       </c>
       <c r="N116" t="n">
         <v>0.9125</v>
@@ -9818,13 +9818,13 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.497</v>
+        <v>0.49695</v>
       </c>
       <c r="G117" t="n">
-        <v>0.491293658185637</v>
+        <v>0.491300192152609</v>
       </c>
       <c r="H117" t="n">
-        <v>1.178</v>
+        <v>1.1782</v>
       </c>
       <c r="I117" t="n">
         <v>1.02</v>
@@ -9835,7 +9835,7 @@
         <v>0.16</v>
       </c>
       <c r="M117" t="n">
-        <v>0.8288</v>
+        <v>0.82894</v>
       </c>
       <c r="N117" t="n">
         <v>0.9125</v>
@@ -10291,7 +10291,7 @@
         <v>0.008</v>
       </c>
       <c r="G123" t="n">
-        <v>0.009014852121305801</v>
+        <v>0.009016496948095001</v>
       </c>
       <c r="H123" t="n">
         <v>0.033</v>
@@ -10372,7 +10372,7 @@
         <v>0.008</v>
       </c>
       <c r="G124" t="n">
-        <v>0.009014852121305801</v>
+        <v>0.009016496948095001</v>
       </c>
       <c r="H124" t="n">
         <v>0.033</v>
@@ -10793,7 +10793,7 @@
         <v>0.0036</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0097604156206221</v>
+        <v>0.0097648507187535</v>
       </c>
       <c r="H129" t="n">
         <v>0.0953535842749265</v>
@@ -10874,7 +10874,7 @@
         <v>0.0036</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0097604156206221</v>
+        <v>0.0097648507187535</v>
       </c>
       <c r="H130" t="n">
         <v>0.0953535842749265</v>
@@ -10955,7 +10955,7 @@
         <v>0.504</v>
       </c>
       <c r="G131" t="n">
-        <v>0.47615041271226</v>
+        <v>0.476164986950196</v>
       </c>
       <c r="H131" t="n">
         <v>1.1681</v>
@@ -11036,7 +11036,7 @@
         <v>0.504</v>
       </c>
       <c r="G132" t="n">
-        <v>0.47615041271226</v>
+        <v>0.476164986950196</v>
       </c>
       <c r="H132" t="n">
         <v>1.1681</v>
@@ -11113,10 +11113,10 @@
         <v>0.525</v>
       </c>
       <c r="G133" t="n">
-        <v>0.500460324852304</v>
+        <v>0.500461858819276</v>
       </c>
       <c r="H133" t="n">
-        <v>1.178</v>
+        <v>1.1782</v>
       </c>
       <c r="I133" t="n">
         <v>1.02</v>
@@ -11127,7 +11127,7 @@
         <v>0.15</v>
       </c>
       <c r="M133" t="n">
-        <v>0.8288</v>
+        <v>0.82894</v>
       </c>
       <c r="N133" t="n">
         <v>0.9125</v>
@@ -11190,10 +11190,10 @@
         <v>0.525</v>
       </c>
       <c r="G134" t="n">
-        <v>0.500460324852304</v>
+        <v>0.500461858819276</v>
       </c>
       <c r="H134" t="n">
-        <v>1.178</v>
+        <v>1.1782</v>
       </c>
       <c r="I134" t="n">
         <v>1.02</v>
@@ -11204,7 +11204,7 @@
         <v>0.15</v>
       </c>
       <c r="M134" t="n">
-        <v>0.8288</v>
+        <v>0.82894</v>
       </c>
       <c r="N134" t="n">
         <v>0.9125</v>
@@ -11660,7 +11660,7 @@
         <v>0.008</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0096315187879725</v>
+        <v>0.0096331636147617</v>
       </c>
       <c r="H140" t="n">
         <v>0.033</v>
@@ -11741,7 +11741,7 @@
         <v>0.008</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0096315187879725</v>
+        <v>0.0096331636147617</v>
       </c>
       <c r="H141" t="n">
         <v>0.033</v>
@@ -12162,7 +12162,7 @@
         <v>0.00616</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0114801099148409</v>
+        <v>0.0114847914073128</v>
       </c>
       <c r="H146" t="n">
         <v>0.0471278013351094</v>
@@ -12243,7 +12243,7 @@
         <v>0.00616</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0114801099148409</v>
+        <v>0.0114847914073128</v>
       </c>
       <c r="H147" t="n">
         <v>0.0471278013351094</v>
@@ -12324,7 +12324,7 @@
         <v>0.449</v>
       </c>
       <c r="G148" t="n">
-        <v>0.464757079378927</v>
+        <v>0.464771653616863</v>
       </c>
       <c r="H148" t="n">
         <v>1.05</v>
@@ -12405,7 +12405,7 @@
         <v>0.449</v>
       </c>
       <c r="G149" t="n">
-        <v>0.464757079378927</v>
+        <v>0.464771653616863</v>
       </c>
       <c r="H149" t="n">
         <v>1.05</v>
@@ -12482,7 +12482,7 @@
         <v>0.47</v>
       </c>
       <c r="G150" t="n">
-        <v>0.491760324852304</v>
+        <v>0.491765192152609</v>
       </c>
       <c r="H150" t="n">
         <v>1.06</v>
@@ -12559,7 +12559,7 @@
         <v>0.47</v>
       </c>
       <c r="G151" t="n">
-        <v>0.491760324852304</v>
+        <v>0.491765192152609</v>
       </c>
       <c r="H151" t="n">
         <v>1.06</v>
@@ -13029,7 +13029,7 @@
         <v>0.008</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0101368356409215</v>
+        <v>0.0101380371214801</v>
       </c>
       <c r="H157" t="n">
         <v>0.036</v>
@@ -13110,7 +13110,7 @@
         <v>0.008</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0101368356409215</v>
+        <v>0.0101380371214801</v>
       </c>
       <c r="H158" t="n">
         <v>0.036</v>
@@ -13191,7 +13191,7 @@
         <v>350</v>
       </c>
       <c r="G159" t="n">
-        <v>1385.29296804296</v>
+        <v>1385.26829892479</v>
       </c>
       <c r="H159" t="n">
         <v>25000</v>
@@ -13276,7 +13276,7 @@
         <v>350</v>
       </c>
       <c r="G160" t="n">
-        <v>1385.29296804296</v>
+        <v>1385.26829892479</v>
       </c>
       <c r="H160" t="n">
         <v>25000</v>
@@ -13361,7 +13361,7 @@
         <v>350</v>
       </c>
       <c r="G161" t="n">
-        <v>1385.29296804296</v>
+        <v>1385.26829892479</v>
       </c>
       <c r="H161" t="n">
         <v>25000</v>
@@ -13446,7 +13446,7 @@
         <v>350</v>
       </c>
       <c r="G162" t="n">
-        <v>1385.29296804296</v>
+        <v>1385.26829892479</v>
       </c>
       <c r="H162" t="n">
         <v>25000</v>
@@ -13531,7 +13531,7 @@
         <v>0.007860000000000001</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0134497812903026</v>
+        <v>0.013451613339576</v>
       </c>
       <c r="H163" t="n">
         <v>0.0471278013351094</v>
@@ -13612,7 +13612,7 @@
         <v>0.007860000000000001</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0134497812903026</v>
+        <v>0.013451613339576</v>
       </c>
       <c r="H164" t="n">
         <v>0.0471278013351094</v>
@@ -14398,7 +14398,7 @@
         <v>0.008</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0096938043403992</v>
+        <v>0.0096943510975317</v>
       </c>
       <c r="H174" t="n">
         <v>0.036</v>
@@ -14479,7 +14479,7 @@
         <v>0.008</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0096938043403992</v>
+        <v>0.0096943510975317</v>
       </c>
       <c r="H175" t="n">
         <v>0.036</v>
@@ -14560,13 +14560,13 @@
         <v>465</v>
       </c>
       <c r="G176" t="n">
-        <v>2410.42378408498</v>
+        <v>2167.24413474392</v>
       </c>
       <c r="H176" t="n">
         <v>39000</v>
       </c>
       <c r="I176" t="n">
-        <v>14000</v>
+        <v>13065.83939</v>
       </c>
       <c r="J176" t="n">
         <v>44.8275862068966</v>
@@ -14645,13 +14645,13 @@
         <v>465</v>
       </c>
       <c r="G177" t="n">
-        <v>2410.42378408498</v>
+        <v>2167.24413474392</v>
       </c>
       <c r="H177" t="n">
         <v>39000</v>
       </c>
       <c r="I177" t="n">
-        <v>14000</v>
+        <v>13065.83939</v>
       </c>
       <c r="J177" t="n">
         <v>44.8275862068966</v>
@@ -14730,13 +14730,13 @@
         <v>465</v>
       </c>
       <c r="G178" t="n">
-        <v>2410.42378408498</v>
+        <v>2167.24413474392</v>
       </c>
       <c r="H178" t="n">
         <v>39000</v>
       </c>
       <c r="I178" t="n">
-        <v>14000</v>
+        <v>13065.83939</v>
       </c>
       <c r="J178" t="n">
         <v>44.8275862068966</v>
@@ -14815,13 +14815,13 @@
         <v>465</v>
       </c>
       <c r="G179" t="n">
-        <v>2410.42378408498</v>
+        <v>2167.24413474392</v>
       </c>
       <c r="H179" t="n">
         <v>39000</v>
       </c>
       <c r="I179" t="n">
-        <v>14000</v>
+        <v>13065.83939</v>
       </c>
       <c r="J179" t="n">
         <v>44.8275862068966</v>
@@ -14900,7 +14900,7 @@
         <v>0.00979</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0143937296230027</v>
+        <v>0.0143915467596024</v>
       </c>
       <c r="H180" t="n">
         <v>0.0471278013351094</v>
@@ -14981,7 +14981,7 @@
         <v>0.00979</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0143937296230027</v>
+        <v>0.0143915467596024</v>
       </c>
       <c r="H181" t="n">
         <v>0.0471278013351094</v>
@@ -15767,7 +15767,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0105243128149756</v>
+        <v>0.010524859572108</v>
       </c>
       <c r="H191" t="n">
         <v>0.036</v>
@@ -15848,7 +15848,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0105243128149756</v>
+        <v>0.010524859572108</v>
       </c>
       <c r="H192" t="n">
         <v>0.036</v>
@@ -15929,13 +15929,13 @@
         <v>465</v>
       </c>
       <c r="G193" t="n">
-        <v>3037.38930132636</v>
+        <v>2794.2096519853</v>
       </c>
       <c r="H193" t="n">
         <v>39000</v>
       </c>
       <c r="I193" t="n">
-        <v>21860.5524</v>
+        <v>15200</v>
       </c>
       <c r="J193" t="n">
         <v>43.1034482758621</v>
@@ -15950,7 +15950,7 @@
         <v>3156</v>
       </c>
       <c r="N193" t="n">
-        <v>14000</v>
+        <v>13673.04379</v>
       </c>
       <c r="O193" t="n">
         <v>1829591.02</v>
@@ -16014,13 +16014,13 @@
         <v>465</v>
       </c>
       <c r="G194" t="n">
-        <v>3037.38930132636</v>
+        <v>2794.2096519853</v>
       </c>
       <c r="H194" t="n">
         <v>39000</v>
       </c>
       <c r="I194" t="n">
-        <v>21860.5524</v>
+        <v>15200</v>
       </c>
       <c r="J194" t="n">
         <v>43.1034482758621</v>
@@ -16035,7 +16035,7 @@
         <v>3156</v>
       </c>
       <c r="N194" t="n">
-        <v>14000</v>
+        <v>13673.04379</v>
       </c>
       <c r="O194" t="n">
         <v>1829591.02</v>
@@ -16099,13 +16099,13 @@
         <v>465</v>
       </c>
       <c r="G195" t="n">
-        <v>3037.38930132636</v>
+        <v>2794.2096519853</v>
       </c>
       <c r="H195" t="n">
         <v>39000</v>
       </c>
       <c r="I195" t="n">
-        <v>21860.5524</v>
+        <v>15200</v>
       </c>
       <c r="J195" t="n">
         <v>43.1034482758621</v>
@@ -16120,7 +16120,7 @@
         <v>3156</v>
       </c>
       <c r="N195" t="n">
-        <v>14000</v>
+        <v>13673.04379</v>
       </c>
       <c r="O195" t="n">
         <v>1829591.02</v>
@@ -16184,13 +16184,13 @@
         <v>465</v>
       </c>
       <c r="G196" t="n">
-        <v>3037.38930132636</v>
+        <v>2794.2096519853</v>
       </c>
       <c r="H196" t="n">
         <v>39000</v>
       </c>
       <c r="I196" t="n">
-        <v>21860.5524</v>
+        <v>15200</v>
       </c>
       <c r="J196" t="n">
         <v>43.1034482758621</v>
@@ -16205,7 +16205,7 @@
         <v>3156</v>
       </c>
       <c r="N196" t="n">
-        <v>14000</v>
+        <v>13673.04379</v>
       </c>
       <c r="O196" t="n">
         <v>1829591.02</v>
@@ -16269,7 +16269,7 @@
         <v>0.01458</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0172349021217726</v>
+        <v>0.0172331645869431</v>
       </c>
       <c r="H197" t="n">
         <v>0.0971195715541934</v>
@@ -16350,7 +16350,7 @@
         <v>0.01458</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0172349021217726</v>
+        <v>0.0172331645869431</v>
       </c>
       <c r="H198" t="n">
         <v>0.0971195715541934</v>
@@ -17025,6 +17025,1375 @@
         </is>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1.56365853658537</v>
+      </c>
+      <c r="H207" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I207" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M207" t="n">
+        <v>2.6953</v>
+      </c>
+      <c r="N207" t="n">
+        <v>2.844</v>
+      </c>
+      <c r="O207" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="P207" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.0102342333458055</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.01865</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.01578</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="P208" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.0102342333458055</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.01865</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.01578</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="P209" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>362</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2493.88406466351</v>
+      </c>
+      <c r="H210" t="n">
+        <v>39000</v>
+      </c>
+      <c r="I210" t="n">
+        <v>15100</v>
+      </c>
+      <c r="J210" t="n">
+        <v>40.6779661016949</v>
+      </c>
+      <c r="K210" t="n">
+        <v>61.0169491525424</v>
+      </c>
+      <c r="L210" t="n">
+        <v>361</v>
+      </c>
+      <c r="M210" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N210" t="n">
+        <v>10242.38681</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="P210" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>362</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2493.88406466351</v>
+      </c>
+      <c r="H211" t="n">
+        <v>39000</v>
+      </c>
+      <c r="I211" t="n">
+        <v>15100</v>
+      </c>
+      <c r="J211" t="n">
+        <v>40.6779661016949</v>
+      </c>
+      <c r="K211" t="n">
+        <v>61.0169491525424</v>
+      </c>
+      <c r="L211" t="n">
+        <v>361</v>
+      </c>
+      <c r="M211" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N211" t="n">
+        <v>10242.38681</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="P211" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>362</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2493.88406466351</v>
+      </c>
+      <c r="H212" t="n">
+        <v>39000</v>
+      </c>
+      <c r="I212" t="n">
+        <v>15100</v>
+      </c>
+      <c r="J212" t="n">
+        <v>40.6779661016949</v>
+      </c>
+      <c r="K212" t="n">
+        <v>61.0169491525424</v>
+      </c>
+      <c r="L212" t="n">
+        <v>361</v>
+      </c>
+      <c r="M212" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N212" t="n">
+        <v>10242.38681</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="P212" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>362</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2493.88406466351</v>
+      </c>
+      <c r="H213" t="n">
+        <v>39000</v>
+      </c>
+      <c r="I213" t="n">
+        <v>15100</v>
+      </c>
+      <c r="J213" t="n">
+        <v>40.6779661016949</v>
+      </c>
+      <c r="K213" t="n">
+        <v>61.0169491525424</v>
+      </c>
+      <c r="L213" t="n">
+        <v>361</v>
+      </c>
+      <c r="M213" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N213" t="n">
+        <v>10242.38681</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="P213" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>0.01674</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.0176547066933889</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.0971195715541934</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.0403</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>0.01806</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0.02685</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.03403</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="P214" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>0.01674</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.0176547066933889</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.0971195715541934</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.0403</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>0.01806</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0.02685</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.03403</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="P215" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.406169491525424</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1.0155</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.70351</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.92218</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.406169491525424</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1.0155</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0.70351</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.92218</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.440338983050847</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0.7088</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.440338983050847</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0.7088</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.691694915254237</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1.2375</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1.0547</v>
+      </c>
+      <c r="N220" t="n">
+        <v>1.1478</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.691694915254237</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1.2375</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1.0547</v>
+      </c>
+      <c r="N221" t="n">
+        <v>1.1478</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.0476440677966102</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0.16395</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0.06641</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.13458</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.0476440677966102</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0.16395</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.06641</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.13458</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MakakahiatdsEketahunaSTP_d60c1a2963.xlsx
+++ b/state_results/Rivers/MakakahiatdsEketahunaSTP_d60c1a2963.xlsx
@@ -570,13 +570,13 @@
         <v>2.1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.4180673605757</v>
+        <v>2.42624566552852</v>
       </c>
       <c r="H2" t="n">
-        <v>6.425529505292</v>
+        <v>7.10407527298718</v>
       </c>
       <c r="I2" t="n">
-        <v>5.98173</v>
+        <v>5.9775</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -587,7 +587,7 @@
         <v>3.815</v>
       </c>
       <c r="N2" t="n">
-        <v>4.71187</v>
+        <v>4.629</v>
       </c>
       <c r="O2" t="n">
         <v>1829591.02</v>
@@ -1283,13 +1283,13 @@
         <v>1.9</v>
       </c>
       <c r="G11" t="n">
-        <v>2.28270508588775</v>
+        <v>2.2895571792266</v>
       </c>
       <c r="H11" t="n">
-        <v>6.425529505292</v>
+        <v>7.10407527298718</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5721</v>
+        <v>5.5425</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1300,7 +1300,7 @@
         <v>3.305</v>
       </c>
       <c r="N11" t="n">
-        <v>4.64566</v>
+        <v>4.44339</v>
       </c>
       <c r="O11" t="n">
         <v>1829591.02</v>
@@ -1996,13 +1996,13 @@
         <v>2.05</v>
       </c>
       <c r="G20" t="n">
-        <v>2.24298059952865</v>
+        <v>2.24837480066775</v>
       </c>
       <c r="H20" t="n">
-        <v>6.425529505292</v>
+        <v>7.10407527298718</v>
       </c>
       <c r="I20" t="n">
-        <v>4.88937</v>
+        <v>4.8175</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2013,7 +2013,7 @@
         <v>3.1</v>
       </c>
       <c r="N20" t="n">
-        <v>4.496</v>
+        <v>4.24406</v>
       </c>
       <c r="O20" t="n">
         <v>1829591.02</v>
@@ -3365,13 +3365,13 @@
         <v>2.1</v>
       </c>
       <c r="G37" t="n">
-        <v>2.33666850370514</v>
+        <v>2.34195032565384</v>
       </c>
       <c r="H37" t="n">
-        <v>6.425529505292</v>
+        <v>7.10407527298718</v>
       </c>
       <c r="I37" t="n">
-        <v>4.8211</v>
+        <v>4.745</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -3382,7 +3382,7 @@
         <v>3.1</v>
       </c>
       <c r="N37" t="n">
-        <v>4.464</v>
+        <v>4.2393</v>
       </c>
       <c r="O37" t="n">
         <v>1829591.02</v>
@@ -4734,13 +4734,13 @@
         <v>2.08</v>
       </c>
       <c r="G54" t="n">
-        <v>2.26434974299667</v>
+        <v>2.26986120937792</v>
       </c>
       <c r="H54" t="n">
-        <v>6.425529505292</v>
+        <v>7.10407527298718</v>
       </c>
       <c r="I54" t="n">
-        <v>4.95765</v>
+        <v>4.61763</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -14560,13 +14560,13 @@
         <v>465</v>
       </c>
       <c r="G176" t="n">
-        <v>2167.24413474392</v>
+        <v>2228.6145169157</v>
       </c>
       <c r="H176" t="n">
         <v>39000</v>
       </c>
       <c r="I176" t="n">
-        <v>13065.83939</v>
+        <v>14000</v>
       </c>
       <c r="J176" t="n">
         <v>44.8275862068966</v>
@@ -14645,13 +14645,13 @@
         <v>465</v>
       </c>
       <c r="G177" t="n">
-        <v>2167.24413474392</v>
+        <v>2228.6145169157</v>
       </c>
       <c r="H177" t="n">
         <v>39000</v>
       </c>
       <c r="I177" t="n">
-        <v>13065.83939</v>
+        <v>14000</v>
       </c>
       <c r="J177" t="n">
         <v>44.8275862068966</v>
@@ -14730,13 +14730,13 @@
         <v>465</v>
       </c>
       <c r="G178" t="n">
-        <v>2167.24413474392</v>
+        <v>2228.6145169157</v>
       </c>
       <c r="H178" t="n">
         <v>39000</v>
       </c>
       <c r="I178" t="n">
-        <v>13065.83939</v>
+        <v>14000</v>
       </c>
       <c r="J178" t="n">
         <v>44.8275862068966</v>
@@ -14815,13 +14815,13 @@
         <v>465</v>
       </c>
       <c r="G179" t="n">
-        <v>2167.24413474392</v>
+        <v>2228.6145169157</v>
       </c>
       <c r="H179" t="n">
         <v>39000</v>
       </c>
       <c r="I179" t="n">
-        <v>13065.83939</v>
+        <v>14000</v>
       </c>
       <c r="J179" t="n">
         <v>44.8275862068966</v>
@@ -15929,13 +15929,13 @@
         <v>465</v>
       </c>
       <c r="G193" t="n">
-        <v>2794.2096519853</v>
+        <v>2855.58003415708</v>
       </c>
       <c r="H193" t="n">
         <v>39000</v>
       </c>
       <c r="I193" t="n">
-        <v>15200</v>
+        <v>15689.63226</v>
       </c>
       <c r="J193" t="n">
         <v>43.1034482758621</v>
@@ -15950,7 +15950,7 @@
         <v>3156</v>
       </c>
       <c r="N193" t="n">
-        <v>13673.04379</v>
+        <v>14000</v>
       </c>
       <c r="O193" t="n">
         <v>1829591.02</v>
@@ -16014,13 +16014,13 @@
         <v>465</v>
       </c>
       <c r="G194" t="n">
-        <v>2794.2096519853</v>
+        <v>2855.58003415708</v>
       </c>
       <c r="H194" t="n">
         <v>39000</v>
       </c>
       <c r="I194" t="n">
-        <v>15200</v>
+        <v>15689.63226</v>
       </c>
       <c r="J194" t="n">
         <v>43.1034482758621</v>
@@ -16035,7 +16035,7 @@
         <v>3156</v>
       </c>
       <c r="N194" t="n">
-        <v>13673.04379</v>
+        <v>14000</v>
       </c>
       <c r="O194" t="n">
         <v>1829591.02</v>
@@ -16099,13 +16099,13 @@
         <v>465</v>
       </c>
       <c r="G195" t="n">
-        <v>2794.2096519853</v>
+        <v>2855.58003415708</v>
       </c>
       <c r="H195" t="n">
         <v>39000</v>
       </c>
       <c r="I195" t="n">
-        <v>15200</v>
+        <v>15689.63226</v>
       </c>
       <c r="J195" t="n">
         <v>43.1034482758621</v>
@@ -16120,7 +16120,7 @@
         <v>3156</v>
       </c>
       <c r="N195" t="n">
-        <v>13673.04379</v>
+        <v>14000</v>
       </c>
       <c r="O195" t="n">
         <v>1829591.02</v>
@@ -16184,13 +16184,13 @@
         <v>465</v>
       </c>
       <c r="G196" t="n">
-        <v>2794.2096519853</v>
+        <v>2855.58003415708</v>
       </c>
       <c r="H196" t="n">
         <v>39000</v>
       </c>
       <c r="I196" t="n">
-        <v>15200</v>
+        <v>15689.63226</v>
       </c>
       <c r="J196" t="n">
         <v>43.1034482758621</v>
@@ -16205,7 +16205,7 @@
         <v>3156</v>
       </c>
       <c r="N196" t="n">
-        <v>13673.04379</v>
+        <v>14000</v>
       </c>
       <c r="O196" t="n">
         <v>1829591.02</v>
@@ -17298,13 +17298,13 @@
         <v>362</v>
       </c>
       <c r="G210" t="n">
-        <v>2493.88406466351</v>
+        <v>2554.21427086629</v>
       </c>
       <c r="H210" t="n">
         <v>39000</v>
       </c>
       <c r="I210" t="n">
-        <v>15100</v>
+        <v>15650.83629</v>
       </c>
       <c r="J210" t="n">
         <v>40.6779661016949</v>
@@ -17319,7 +17319,7 @@
         <v>2423</v>
       </c>
       <c r="N210" t="n">
-        <v>10242.38681</v>
+        <v>12064</v>
       </c>
       <c r="O210" t="n">
         <v>1829591.02</v>
@@ -17383,13 +17383,13 @@
         <v>362</v>
       </c>
       <c r="G211" t="n">
-        <v>2493.88406466351</v>
+        <v>2554.21427086629</v>
       </c>
       <c r="H211" t="n">
         <v>39000</v>
       </c>
       <c r="I211" t="n">
-        <v>15100</v>
+        <v>15650.83629</v>
       </c>
       <c r="J211" t="n">
         <v>40.6779661016949</v>
@@ -17404,7 +17404,7 @@
         <v>2423</v>
       </c>
       <c r="N211" t="n">
-        <v>10242.38681</v>
+        <v>12064</v>
       </c>
       <c r="O211" t="n">
         <v>1829591.02</v>
@@ -17468,13 +17468,13 @@
         <v>362</v>
       </c>
       <c r="G212" t="n">
-        <v>2493.88406466351</v>
+        <v>2554.21427086629</v>
       </c>
       <c r="H212" t="n">
         <v>39000</v>
       </c>
       <c r="I212" t="n">
-        <v>15100</v>
+        <v>15650.83629</v>
       </c>
       <c r="J212" t="n">
         <v>40.6779661016949</v>
@@ -17489,7 +17489,7 @@
         <v>2423</v>
       </c>
       <c r="N212" t="n">
-        <v>10242.38681</v>
+        <v>12064</v>
       </c>
       <c r="O212" t="n">
         <v>1829591.02</v>
@@ -17553,13 +17553,13 @@
         <v>362</v>
       </c>
       <c r="G213" t="n">
-        <v>2493.88406466351</v>
+        <v>2554.21427086629</v>
       </c>
       <c r="H213" t="n">
         <v>39000</v>
       </c>
       <c r="I213" t="n">
-        <v>15100</v>
+        <v>15650.83629</v>
       </c>
       <c r="J213" t="n">
         <v>40.6779661016949</v>
@@ -17574,7 +17574,7 @@
         <v>2423</v>
       </c>
       <c r="N213" t="n">
-        <v>10242.38681</v>
+        <v>12064</v>
       </c>
       <c r="O213" t="n">
         <v>1829591.02</v>
